--- a/templates/PHIEU_THU.xlsx
+++ b/templates/PHIEU_THU.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\OneDrive\Documents\Project\PublicLedger\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F61A0B-BC94-4E92-9E8A-AFA180054620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0165A924-35A6-4B6E-BD5E-48AB6CEF2C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -122,7 +122,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -166,6 +166,12 @@
       <color theme="1"/>
       <name val="&quot;Times New Roman&quot;"/>
     </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;Times New Roman&quot;"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -187,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -206,28 +212,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -447,64 +456,55 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18:K18"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="16" t="s">
+      <c r="F1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-    </row>
-    <row r="2" spans="1:11" ht="13.8">
-      <c r="A2" s="15" t="s">
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+    </row>
+    <row r="2" spans="1:10" ht="13.8">
+      <c r="A2" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
+      <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="9" t="s">
+      <c r="F2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-    </row>
-    <row r="3" spans="1:11" ht="13.8">
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+    </row>
+    <row r="3" spans="1:10" ht="13.8">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="9" t="s">
+      <c r="F3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-    </row>
-    <row r="4" spans="1:11" ht="13.8">
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+    </row>
+    <row r="4" spans="1:10" ht="13.8">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -515,75 +515,66 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="13" t="s">
+    </row>
+    <row r="5" spans="1:10" ht="21" customHeight="1">
+      <c r="A5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="2" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" ht="13.8">
-      <c r="A6" s="14" t="e">
+      <c r="I5" s="2"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" ht="13.8">
+      <c r="A6" s="15" t="e">
         <v>#N/A</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="2" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="13.8">
+      <c r="I6" s="2"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" ht="13.8">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="G7" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="1:11" ht="13.8">
+      <c r="I7" s="2"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10" ht="13.8">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="G8" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K8" s="5"/>
-    </row>
-    <row r="9" spans="1:11" ht="13.8">
+      <c r="I8" s="2"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" ht="13.8">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -594,94 +585,88 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" ht="13.8">
-      <c r="A10" s="15" t="s">
+    </row>
+    <row r="10" spans="1:10" ht="13.8">
+      <c r="A10" s="16" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" ht="13.8">
+    </row>
+    <row r="11" spans="1:10" ht="13.8">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" ht="13.8">
-      <c r="A12" s="15" t="s">
+    </row>
+    <row r="12" spans="1:10" ht="13.8">
+      <c r="A12" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="10"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" ht="13.8">
+    </row>
+    <row r="13" spans="1:10" ht="13.8">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" ht="13.8">
-      <c r="A14" s="15" t="s">
+    </row>
+    <row r="14" spans="1:10" ht="13.8">
+      <c r="A14" s="16" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="10"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="6" t="s">
+      <c r="C14" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" ht="13.8">
+    </row>
+    <row r="15" spans="1:10" ht="13.8">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -696,9 +681,8 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" ht="13.8">
+    </row>
+    <row r="16" spans="1:10" ht="13.8">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -709,9 +693,8 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:11" ht="13.8">
+    </row>
+    <row r="17" spans="1:10" ht="13.8">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -722,54 +705,42 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:11" ht="13.8">
+    </row>
+    <row r="18" spans="1:10" ht="13.8">
       <c r="A18" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="10"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="9" t="s">
+      <c r="C18" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="9" t="s">
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="G18" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="I18" s="10"/>
-      <c r="J18" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="K18" s="10"/>
-    </row>
-    <row r="19" spans="1:11" ht="13.8">
-      <c r="A19" s="8" t="s">
+      <c r="H18" s="10"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="10"/>
+    </row>
+    <row r="19" spans="1:10" ht="13.8">
+      <c r="A19" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="D19" s="9" t="s">
+      <c r="B19" s="17"/>
+      <c r="C19" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="9" t="s">
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="G19" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I19" s="10"/>
-      <c r="J19" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K19" s="10"/>
-    </row>
-    <row r="20" spans="1:11" ht="13.8">
+      <c r="H19" s="10"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="10"/>
+    </row>
+    <row r="20" spans="1:10" ht="13.8">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -780,9 +751,8 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="1:11" ht="13.8">
+    </row>
+    <row r="21" spans="1:10" ht="13.8">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -793,9 +763,8 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="1:11" ht="13.8">
+    </row>
+    <row r="22" spans="1:10" ht="13.8">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -806,62 +775,107 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A23" s="11" t="s">
+    </row>
+    <row r="23" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A23" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="11" t="s">
+      <c r="B23" s="11"/>
+      <c r="C23" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="11" t="s">
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="G23" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="11"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="11"/>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" customHeight="1">
+      <c r="H24" s="7"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A26" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="F26" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A27" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="F27" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="10"/>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A31" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I23" s="12"/>
-      <c r="J23" s="11" t="s">
+      <c r="B31" s="10"/>
+      <c r="F31" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="K23" s="12"/>
-    </row>
-    <row r="24" spans="1:11" ht="15.75" customHeight="1">
-      <c r="I24" s="7"/>
+      <c r="G31" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A10:C10"/>
+  <mergeCells count="28">
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A14:B14"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G18:H18"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="A23:B23"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0" right="0" top="0.15" bottom="0" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/templates/PHIEU_THU.xlsx
+++ b/templates/PHIEU_THU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\OneDrive\Documents\Project\PublicLedger\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0165A924-35A6-4B6E-BD5E-48AB6CEF2C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515245FC-0110-4606-A059-D62989BC26AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>{DEPARTMENT}</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>{TREASURER_NAME}</t>
+  </si>
+  <si>
+    <t>{NUMBER}</t>
   </si>
 </sst>
 </file>
@@ -212,13 +215,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -233,10 +240,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -459,38 +462,38 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
     </row>
     <row r="2" spans="1:10" ht="13.8">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="10"/>
+      <c r="B2" s="9"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
     </row>
     <row r="3" spans="1:10" ht="13.8">
       <c r="A3" s="1"/>
@@ -498,11 +501,11 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
     </row>
     <row r="4" spans="1:10" ht="13.8">
       <c r="A4" s="1"/>
@@ -517,14 +520,14 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" ht="21" customHeight="1">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
       <c r="G5" s="2" t="s">
         <v>6</v>
       </c>
@@ -532,16 +535,19 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" ht="13.8">
-      <c r="A6" s="15" t="e">
+      <c r="A6" s="17" t="e">
         <v>#N/A</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
       <c r="G6" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="H6" t="s">
+        <v>32</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="3"/>
@@ -587,10 +593,10 @@
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" ht="13.8">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="10"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="6" t="s">
         <v>11</v>
       </c>
@@ -619,10 +625,10 @@
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" ht="13.8">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="10"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="6" t="s">
         <v>15</v>
       </c>
@@ -651,10 +657,10 @@
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" ht="13.8">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="10"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="6" t="s">
         <v>19</v>
       </c>
@@ -707,38 +713,38 @@
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" ht="13.8">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="9" t="s">
+      <c r="B18" s="9"/>
+      <c r="C18" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="G18" s="9" t="s">
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="G18" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H18" s="10"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="10"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="9"/>
     </row>
     <row r="19" spans="1:10" ht="13.8">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="9" t="s">
+      <c r="B19" s="11"/>
+      <c r="C19" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="G19" s="9" t="s">
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="G19" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H19" s="10"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="10"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="9"/>
     </row>
     <row r="20" spans="1:10" ht="13.8">
       <c r="A20" s="1"/>
@@ -777,44 +783,44 @@
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="8" t="s">
+      <c r="B23" s="13"/>
+      <c r="C23" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="G23" s="8" t="s">
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="G23" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H23" s="11"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="11"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="13"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1">
       <c r="H24" s="7"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="F26" s="9" t="s">
+      <c r="B26" s="9"/>
+      <c r="F26" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G26" s="10"/>
+      <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="F27" s="9" t="s">
+      <c r="B27" s="9"/>
+      <c r="F27" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G27" s="10"/>
+      <c r="G27" s="9"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1">
       <c r="A28" s="1"/>
@@ -835,26 +841,23 @@
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="F31" s="8" t="s">
+      <c r="B31" s="9"/>
+      <c r="F31" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="G31" s="11"/>
+      <c r="G31" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F31:G31"/>
     <mergeCell ref="G23:H23"/>
     <mergeCell ref="I23:J23"/>
     <mergeCell ref="I19:J19"/>
@@ -867,13 +870,16 @@
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C23:E23"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F31:G31"/>
     <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.15" bottom="0" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
